--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,51 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>shit</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -94,19 +94,19 @@
     <t>fake</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>interesting</t>
@@ -118,27 +118,27 @@
     <t>good</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>love</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
@@ -154,19 +154,16 @@
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -538,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -649,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,31 +664,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0.9</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>0.88</v>
-      </c>
-      <c r="L4">
-        <v>44</v>
-      </c>
-      <c r="M4">
-        <v>44</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9519230769230769</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,31 +714,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L5">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>26</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,16 +817,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.68</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.631578947368421</v>
+        <v>0.64</v>
       </c>
       <c r="L9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.5833333333333334</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6086956521739131</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.4848484848484849</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>16</v>
-      </c>
-      <c r="M12">
-        <v>16</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <v>0.4166666666666667</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5942028985507246</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1167,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.3888888888888889</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5416666666666666</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.2604735883424408</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L15">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M15">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1267,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L16">
         <v>12</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.2372881355932203</v>
-      </c>
-      <c r="L16">
-        <v>14</v>
-      </c>
       <c r="M16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1299,13 +1296,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5319148936170213</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1317,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.1846153846153846</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L17">
         <v>12</v>
@@ -1341,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1349,13 +1346,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1367,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.1789473684210526</v>
+        <v>0.2</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1391,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1399,13 +1396,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1417,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.1529411764705882</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1441,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1449,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1794871794871795</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1467,69 +1464,45 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.1529411764705882</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K20">
-        <v>0.04969879518072289</v>
-      </c>
-      <c r="L20">
-        <v>33</v>
-      </c>
-      <c r="M20">
-        <v>33</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.0505050505050505</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>0.12</v>
-      </c>
-      <c r="F21">
-        <v>0.88</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>282</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.04593639575971731</v>
+        <v>0.05873493975903615</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1541,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>270</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.04105571847507331</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1567,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>327</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.04097311139564661</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1593,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>749</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.03571428571428571</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1619,56 +1592,56 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.03518518518518519</v>
+        <v>0.02948717948717949</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>521</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.02592165898617511</v>
+        <v>0.02536023054755043</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M26">
         <v>45</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>1691</v>
